--- a/Budget/Group05_budget.xlsx
+++ b/Budget/Group05_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S542262\Documents\NMSU\PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF74AF59-3568-450A-A42A-FBFF4B359899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C67B2B-A994-4EA9-BD7A-9C4CB563B43A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C2310232-A6E0-4B32-B14A-8E13CF098D85}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Role</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Project Manager</t>
   </si>
@@ -61,6 +58,15 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>For 14 Weeks</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Direct/Indirect</t>
   </si>
 </sst>
 </file>
@@ -70,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +91,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,15 +134,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -426,104 +480,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DB8C53-CAA7-489C-816E-96F2D96C3047}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" s="7">
+        <v>70</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <f>B2*C2</f>
+        <v>140</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D5" si="0">B3*C3</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>65</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8">
+        <v>1600</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <f>B2*C2</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>80</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D5" si="0">B3*C3</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>90</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
+      <c r="D7" s="9">
+        <f>SUM(D1:D6)</f>
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
-        <f>SUM(D2:D5)</f>
-        <v>7900</v>
+      <c r="D8" s="9">
+        <f>D7*14</f>
+        <v>65660</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>